--- a/academycity/data/avia/datasets/excel/smart_cities/salary_cities.xlsx
+++ b/academycity/data/avia/datasets/excel/smart_cities/salary_cities.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">net_salary</t>
+    <t xml:space="preserve">salary</t>
   </si>
   <si>
     <t xml:space="preserve">San Francisco, CA, United States</t>
@@ -1044,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
